--- a/biology/Médecine/Hôpital_régional_de_Rimouski/Hôpital_régional_de_Rimouski.xlsx
+++ b/biology/Médecine/Hôpital_régional_de_Rimouski/Hôpital_régional_de_Rimouski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Rimouski</t>
+          <t>Hôpital_régional_de_Rimouski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital régional de Rimouski est un hôpital situé à Rimouski. Il s'agit du plus grand centre hospitalier de l'Est du Québec[1]. Il offre des soins surspécialisés en radio-oncologie, en néphrologie et en néonatalité à la population du Bas-Saint-Laurent, de la Gaspésie–Îles-de-la-Madeleine et de la Côte-Nord.
+L'hôpital régional de Rimouski est un hôpital situé à Rimouski. Il s'agit du plus grand centre hospitalier de l'Est du Québec. Il offre des soins surspécialisés en radio-oncologie, en néphrologie et en néonatalité à la population du Bas-Saint-Laurent, de la Gaspésie–Îles-de-la-Madeleine et de la Côte-Nord.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_de_Rimouski</t>
+          <t>Hôpital_régional_de_Rimouski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant le XXe siècle, Rimouski ne possède aucun hôpital. Les soins sont prodigués à domicile ou dans les bureaux privés de médecin.
 Le besoin d'un hôpital se fait sentir lors de la pandémie grippale de 1918. En 1923, Joseph-Romuald Léonard, évêque de Rimouski, autorise la construction d'un hôpital dans la maison Pouliot, coin sud-est des rues Sainte-Marie et Saint-Louis. En 1926, un bâtiment plus fonctionnel est construit sous le nom d'Hôpital Saint-Joseph. Deux ailes sont ajoutées en 1936 (pavillon Saint-Joseph) et 1938 (pavillon d’Youville).
 L'incendie de Rimouski en 1950 abîme tout l'édifice, sauf le bâtiment original. Il est restauré immédiatement. Le pavillon Notre-Dame est construit en 1962.
-En 1983, l'Hôpital St-Joseph devient le Centre hospitalier régional de Rimouski[2]. En 1996 est ouvert le Centre de cancer et du Service de dialyse rénale.
+En 1983, l'Hôpital St-Joseph devient le Centre hospitalier régional de Rimouski. En 1996 est ouvert le Centre de cancer et du Service de dialyse rénale.
 </t>
         </is>
       </c>
